--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="16200" windowHeight="9970" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="2" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfTrainees" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ListOfTrainers" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CourseDetails" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MappingCourseTrainees" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MappingCourseTrainers" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ListOfManagers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CourseDetails" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MappingCourseTrainees" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MappingCourseTrainers" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="1212_1212" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -428,13 +430,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -442,72 +444,78 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>John Wick</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>C343</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>hll</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>eer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>john</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>wewe</t>
-        </is>
-      </c>
-    </row>
+          <t>degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Caine</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C343</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sdfsdfsdf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>killa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C343</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dksdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ksdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C333</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>degree</t>
         </is>
       </c>
     </row>
@@ -525,10 +533,10 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -536,21 +544,21 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A test</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>trainer</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>trainer@trainer.com</t>
-        </is>
-      </c>
-      <c r="E1" t="n">
-        <v>1234567</v>
+          <t>sf</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>C343</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -559,6 +567,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -567,74 +593,21 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>C343</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>eeee</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1, 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+          <t>Python and C++</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -648,14 +621,153 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C343</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1, 2, 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C343</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A test</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Attendance of trainees</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>John Wick</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>killa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>